--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawczakr\Downloads\git\Dices\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07500E-7D1A-44BC-B6CB-FE0389401762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681BFC9-C312-4870-9FB9-E4C2C70B8BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3876" yWindow="504" windowWidth="17280" windowHeight="8964" xr2:uid="{B56B30AD-E1F9-4485-9E65-621CFB902A1D}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t>throw_dices</t>
   </si>
   <si>
-    <t xml:space="preserve">Throw dices [y/n]?: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rzuć kośćmi [y/n]?: </t>
-  </si>
-  <si>
     <t>Closing the game…</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>Wynik:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throw dices [y/n]: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rzuć kośćmi [y/n]: </t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,24 +519,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,87 +555,87 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/language.xlsx
+++ b/src/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawczakr\Downloads\git\Dices\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\Desktop\coding\Dices\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681BFC9-C312-4870-9FB9-E4C2C70B8BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F7F83-DE57-4957-A10E-FF2C44416511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3876" yWindow="504" windowWidth="17280" windowHeight="8964" xr2:uid="{B56B30AD-E1F9-4485-9E65-621CFB902A1D}"/>
+    <workbookView xWindow="-25260" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{B56B30AD-E1F9-4485-9E65-621CFB902A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,14 +499,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -539,7 +539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -572,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -594,7 +594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
